--- a/data_output/prism_passive/all_passive_out_strain_GMtend_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMtend_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.313917659626551</v>
+        <v>13.313917679444573</v>
       </c>
       <c r="C2">
-        <v>4.4860377939991656</v>
+        <v>4.486037811167483</v>
       </c>
       <c r="D2">
-        <v>14.750011552998298</v>
+        <v>14.750011579712915</v>
       </c>
       <c r="E2">
-        <v>1.5824822422892861</v>
+        <v>1.5824822695247209</v>
       </c>
       <c r="F2">
-        <v>28.005157365552318</v>
+        <v>28.005157382535945</v>
       </c>
       <c r="G2">
-        <v>7.3626201513765563</v>
+        <v>7.3626201865586562</v>
       </c>
       <c r="H2">
-        <v>-0.92013080800971703</v>
+        <v>-0.92013078011892402</v>
       </c>
       <c r="I2">
-        <v>5.6039123068503827</v>
+        <v>5.6039123303280105</v>
       </c>
       <c r="J2">
-        <v>7.7024797183610172</v>
+        <v>7.702479740691766</v>
       </c>
       <c r="K2">
-        <v>-5.2803291968224624</v>
+        <v>-5.2803291929132303</v>
       </c>
       <c r="L2">
-        <v>4.8718254603977416</v>
+        <v>4.8718254868946786</v>
       </c>
       <c r="M2">
-        <v>2.7585825185164312</v>
+        <v>2.7585825511294875</v>
       </c>
       <c r="N2">
-        <v>0.3480867266682609</v>
+        <v>0.3480867580372361</v>
       </c>
       <c r="O2">
-        <v>4.7037902492648307</v>
+        <v>4.7037902766428905</v>
       </c>
       <c r="P2">
-        <v>6.157939716481617</v>
+        <v>6.1579397394234414</v>
       </c>
       <c r="Q2">
-        <v>1.7431727966281347</v>
+        <v>1.7431728257387049</v>
       </c>
       <c r="R2">
-        <v>1.2637822703467407</v>
+        <v>1.2637822953400399</v>
       </c>
       <c r="S2">
-        <v>7.9262749710024689</v>
+        <v>7.9262749855196208</v>
       </c>
       <c r="T2">
-        <v>-3.9132830740596036</v>
+        <v>-3.9132830478500731</v>
       </c>
       <c r="U2">
-        <v>-2.9621143163629586</v>
+        <v>-2.9621143023882004</v>
       </c>
       <c r="V2">
-        <v>-2.761512772945065</v>
+        <v>-2.7615127633659906</v>
       </c>
       <c r="W2">
-        <v>6.4819059978973161</v>
+        <v>6.4819060329846554</v>
       </c>
       <c r="X2">
-        <v>-3.2159073902612869</v>
+        <v>-3.2159073503110966</v>
       </c>
       <c r="Y2">
-        <v>-4.1093354689674291</v>
+        <v>-4.1093354546462253</v>
       </c>
       <c r="Z2">
-        <v>0.24761847345117477</v>
+        <v>0.24761848740961784</v>
       </c>
       <c r="AA2">
-        <v>4.9694504560469497</v>
+        <v>4.9694505105382838</v>
       </c>
       <c r="AB2">
-        <v>3.4001875164005093</v>
+        <v>3.4001875396437486</v>
       </c>
       <c r="AC2">
-        <v>4.6560522044645705</v>
+        <v>4.6560522265198827</v>
       </c>
       <c r="AD2">
-        <v>1.1730739315744632</v>
+        <v>1.17307395370404</v>
       </c>
       <c r="AE2">
-        <v>-3.4383937391383346</v>
+        <v>-3.4383937259172868</v>
       </c>
       <c r="AF2">
-        <v>1.6649620091835122</v>
+        <v>1.6649620235352287</v>
       </c>
       <c r="AG2">
-        <v>1.6962525936124808</v>
+        <v>1.6962526073772959</v>
       </c>
       <c r="AH2">
-        <v>1.7901197564175113</v>
+        <v>1.7901197716142916</v>
       </c>
       <c r="AI2">
-        <v>22.963492906238038</v>
+        <v>22.963492915396834</v>
       </c>
       <c r="AJ2">
-        <v>2.8923490307255708</v>
+        <v>2.8923490525771443</v>
       </c>
       <c r="AK2">
-        <v>3.3642148820073263</v>
+        <v>3.3642149055396842</v>
       </c>
       <c r="AL2">
-        <v>-4.7876196560519881</v>
+        <v>-4.787619638230959</v>
       </c>
       <c r="AM2">
-        <v>1.0358889865991472</v>
+        <v>1.0358890086831123</v>
       </c>
       <c r="AN2">
-        <v>0.87510526337100725</v>
+        <v>0.87510528338851523</v>
       </c>
       <c r="AO2">
-        <v>-1.9168156199005428</v>
+        <v>-1.9168155909563482</v>
       </c>
       <c r="AP2">
-        <v>1.6060316573931865</v>
+        <v>1.6060316792754554</v>
       </c>
       <c r="AQ2">
-        <v>0.30266652554416906</v>
+        <v>0.30266655436741863</v>
       </c>
       <c r="AR2">
-        <v>2.6788494721503486</v>
+        <v>2.6788494790385498</v>
       </c>
       <c r="AS2">
-        <v>-2.6609609087801922</v>
+        <v>-2.6609608886599356</v>
       </c>
       <c r="AT2">
-        <v>-2.7118038985032755</v>
+        <v>-2.7118038758891223</v>
       </c>
       <c r="AU2">
-        <v>-1.23556504878089</v>
+        <v>-1.2355650370422189</v>
       </c>
       <c r="AV2">
-        <v>1.4899449560200386</v>
+        <v>1.4899449926023534</v>
       </c>
       <c r="AW2">
-        <v>-1.8696081609579376</v>
+        <v>-1.8696081267006688</v>
       </c>
       <c r="AX2">
-        <v>-2.7256945081552373</v>
+        <v>-2.7256944891400292</v>
       </c>
       <c r="AY2">
-        <v>-1.934404071438951</v>
+        <v>-1.9344040584188569</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.807652651233369</v>
+        <v>13.807652646956136</v>
       </c>
       <c r="C3">
-        <v>4.3758452871071913</v>
+        <v>4.3758452969081905</v>
       </c>
       <c r="D3">
-        <v>-4.2763367786664519</v>
+        <v>-4.2763367419846103</v>
       </c>
       <c r="E3">
-        <v>-3.3312814415200891</v>
+        <v>-3.3312814388651391</v>
       </c>
       <c r="F3">
-        <v>11.412991710890037</v>
+        <v>11.412991725498353</v>
       </c>
       <c r="G3">
-        <v>1.2201667200309407</v>
+        <v>1.2201667272454284</v>
       </c>
       <c r="H3">
-        <v>3.0177502941655043</v>
+        <v>3.0177503371129011</v>
       </c>
       <c r="I3">
-        <v>1.9422644812218059</v>
+        <v>1.9422644716398814</v>
       </c>
       <c r="J3">
-        <v>4.7154151493277006</v>
+        <v>4.7154151566809173</v>
       </c>
       <c r="K3">
-        <v>12.326142373033244</v>
+        <v>12.326142396365606</v>
       </c>
       <c r="L3">
-        <v>0.86684680231461897</v>
+        <v>0.86684682639113186</v>
       </c>
       <c r="M3">
-        <v>2.4087795670901513</v>
+        <v>2.4086975222951486</v>
       </c>
       <c r="N3">
-        <v>1.6881353806820061</v>
+        <v>1.6881353977750109</v>
       </c>
       <c r="O3">
-        <v>4.2882762370947631</v>
+        <v>4.2882762550519846</v>
       </c>
       <c r="P3">
-        <v>-14.869202150827284</v>
+        <v>-14.869202125552681</v>
       </c>
       <c r="Q3">
-        <v>1.4420474303542621</v>
+        <v>1.4420474550048263</v>
       </c>
       <c r="R3">
-        <v>5.8867185192945453</v>
+        <v>5.8867185471804166</v>
       </c>
       <c r="S3">
-        <v>8.4985780057228446</v>
+        <v>8.4985780167608027</v>
       </c>
       <c r="T3">
-        <v>6.4391323036094379</v>
+        <v>6.4391323189456964</v>
       </c>
       <c r="U3">
-        <v>-1.6912129127062914</v>
+        <v>-1.6912128965425897</v>
       </c>
       <c r="V3">
-        <v>-3.9898806651434837</v>
+        <v>-3.9898806538211726</v>
       </c>
       <c r="W3">
-        <v>9.7750319515576042E-2</v>
+        <v>9.7750343654905175E-2</v>
       </c>
       <c r="X3">
-        <v>9.9359854616148997</v>
+        <v>9.9359854790849305</v>
       </c>
       <c r="Y3">
-        <v>5.556499948589404</v>
+        <v>5.5564999775994721</v>
       </c>
       <c r="Z3">
-        <v>-2.90378285766672</v>
+        <v>-2.9037828402113486</v>
       </c>
       <c r="AA3">
-        <v>2.9374850046921894</v>
+        <v>2.937485069291851</v>
       </c>
       <c r="AB3">
-        <v>4.0141682779704135</v>
+        <v>4.0141683058161659</v>
       </c>
       <c r="AC3">
-        <v>0.13816564665505038</v>
+        <v>0.13816567907604096</v>
       </c>
       <c r="AD3">
-        <v>-0.82529278392309902</v>
+        <v>-0.82529274508204242</v>
       </c>
       <c r="AE3">
-        <v>-2.498863553484775</v>
+        <v>-2.4988635388675209</v>
       </c>
       <c r="AF3">
-        <v>1.4669999310361654</v>
+        <v>1.466999942894454</v>
       </c>
       <c r="AG3">
-        <v>2.4428880500190471</v>
+        <v>2.442888078954907</v>
       </c>
       <c r="AH3">
-        <v>-0.76882008116723688</v>
+        <v>-0.76882006107549705</v>
       </c>
       <c r="AI3">
-        <v>4.634503448885499</v>
+        <v>4.6345034781216867</v>
       </c>
       <c r="AJ3">
-        <v>-2.2897373635223777</v>
+        <v>-2.2897373409510147</v>
       </c>
       <c r="AK3">
-        <v>4.0689235475330596</v>
+        <v>4.0689235648205129</v>
       </c>
       <c r="AL3">
-        <v>-3.9431553455274022</v>
+        <v>-3.9431553198684384</v>
       </c>
       <c r="AM3">
-        <v>1.2485001758941987</v>
+        <v>1.2485002044142328</v>
       </c>
       <c r="AN3">
-        <v>5.8290282733048739</v>
+        <v>5.82902827960634</v>
       </c>
       <c r="AO3">
-        <v>10.098187745315952</v>
+        <v>10.09818776854681</v>
       </c>
       <c r="AP3">
-        <v>-3.8916802161260389</v>
+        <v>-3.8916801914406176</v>
       </c>
       <c r="AQ3">
-        <v>-1.7260869493988868</v>
+        <v>-1.7260869278741331</v>
       </c>
       <c r="AR3">
-        <v>0.58561139219789515</v>
+        <v>0.58561140061345018</v>
       </c>
       <c r="AS3">
-        <v>4.1617043817693125</v>
+        <v>4.1617044011799509</v>
       </c>
       <c r="AT3">
-        <v>-0.42989154603198243</v>
+        <v>-0.42989152475822789</v>
       </c>
       <c r="AU3">
-        <v>-2.9144465869658851</v>
+        <v>-2.9144465752448352</v>
       </c>
       <c r="AV3">
-        <v>-1.9079241053138847</v>
+        <v>-1.9079240619268671</v>
       </c>
       <c r="AW3">
-        <v>-1.7440547638655195</v>
+        <v>-1.744054741912235</v>
       </c>
       <c r="AX3">
-        <v>-17.503733191710001</v>
+        <v>-17.503733166284153</v>
       </c>
       <c r="AY3">
-        <v>-9.7776956869774185</v>
+        <v>-9.7776956702981028</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_GMtend_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMtend_ind_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,310 +401,304 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>13.313917679444573</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>4.486037811167483</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>14.750011579712915</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.5824822695247209</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>28.005157382535945</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>7.3626201865586562</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.92013078011892402</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>5.6039123303280105</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>7.702479740691766</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>-5.2803291929132303</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>4.8718254868946786</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>2.7585825511294875</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.3480867580372361</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>4.7037902766428905</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>6.1579397394234414</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.7431728257387049</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.2637822953400399</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>7.9262749855196208</v>
+        <v>7.9262948499459336</v>
       </c>
       <c r="T2">
-        <v>-3.9132830478500731</v>
+        <v>-3.9132676963907294</v>
       </c>
       <c r="U2">
-        <v>-2.9621143023882004</v>
+        <v>-2.9620952567150369</v>
       </c>
       <c r="V2">
-        <v>-2.7615127633659906</v>
+        <v>-2.761496769425551</v>
       </c>
       <c r="W2">
-        <v>6.4819060329846554</v>
+        <v>6.4819228517600722</v>
       </c>
       <c r="X2">
-        <v>-3.2159073503110966</v>
+        <v>-3.215927107449283</v>
       </c>
       <c r="Y2">
-        <v>-4.1093354546462253</v>
+        <v>-4.109352573821254</v>
       </c>
       <c r="Z2">
-        <v>0.24761848740961784</v>
+        <v>0.24759791867923978</v>
       </c>
       <c r="AA2">
-        <v>4.9694505105382838</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>3.4001875396437486</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>4.6560522265198827</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1.17307395370404</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-3.4383937259172868</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.6649620235352287</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.6962526073772959</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1.7901197716142916</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>22.963492915396834</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>2.8923490525771443</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>3.3642149055396842</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-4.787619638230959</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>1.0358890086831123</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.87510528338851523</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-1.9168155909563482</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.6060316792754554</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.30266655436741863</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>2.6788494790385498</v>
+        <v>2.6788679253682086</v>
       </c>
       <c r="AS2">
-        <v>-2.6609608886599356</v>
+        <v>-2.6609453920902628</v>
       </c>
       <c r="AT2">
         <v>-2.7118038758891223</v>
       </c>
       <c r="AU2">
-        <v>-1.2355650370422189</v>
+        <v>-1.2355487985223568</v>
       </c>
       <c r="AV2">
         <v>1.4899449926023534</v>
       </c>
       <c r="AW2">
-        <v>-1.8696081267006688</v>
+        <v>-1.8696287928012307</v>
       </c>
       <c r="AX2">
-        <v>-2.7256944891400292</v>
+        <v>-2.7257113355751863</v>
       </c>
       <c r="AY2">
         <v>-1.9344040584188569</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>13.807652646956136</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4.3758452969081905</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-4.2763367419846103</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-3.3312814388651391</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>11.412991725498353</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.2201667272454284</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3.0177503371129011</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.9422644716398814</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4.7154151566809173</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>12.326142396365606</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.86684682639113186</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>2.4086975222951486</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.6881353977750109</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>4.2882762550519846</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>-14.869202125552681</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.4420474550048263</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>5.8867185471804166</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>8.4985780167608027</v>
       </c>
       <c r="T3">
-        <v>6.4391323189456964</v>
+        <v>6.4391491118655928</v>
       </c>
       <c r="U3">
-        <v>-1.6912128965425897</v>
+        <v>-1.6911936105145635</v>
       </c>
       <c r="V3">
-        <v>-3.9898806538211726</v>
+        <v>-3.9898661093899515</v>
       </c>
       <c r="W3">
-        <v>9.7750343654905175E-2</v>
+        <v>9.7767705831703758E-2</v>
       </c>
       <c r="X3">
-        <v>9.9359854790849305</v>
+        <v>9.9360100153657953</v>
       </c>
       <c r="Y3">
-        <v>5.5564999775994721</v>
+        <v>5.5564788133836576</v>
       </c>
       <c r="Z3">
-        <v>-2.9037828402113486</v>
+        <v>-2.9038016868370353</v>
       </c>
       <c r="AA3">
-        <v>2.937485069291851</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>4.0141683058161659</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.13816567907604096</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>-0.82529274508204242</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-2.4988635388675209</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.466999942894454</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>2.442888078954907</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>-0.76882006107549705</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>4.6345034781216867</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-2.2897373409510147</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>4.0689235648205129</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>-3.9431553198684384</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>1.2485002044142328</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>5.82902827960634</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>10.09818776854681</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-3.8916801914406176</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-1.7260869278741331</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.58561140061345018</v>
+        <v>0.58562994672312674</v>
       </c>
       <c r="AS3">
         <v>4.1617044011799509</v>
       </c>
       <c r="AT3">
-        <v>-0.42989152475822789</v>
+        <v>-0.42987158401325787</v>
       </c>
       <c r="AU3">
-        <v>-2.9144465752448352</v>
+        <v>-2.9144319648502273</v>
       </c>
       <c r="AV3">
-        <v>-1.9079240619268671</v>
+        <v>-1.9079405679796344</v>
       </c>
       <c r="AW3">
-        <v>-1.744054741912235</v>
+        <v>-1.7440344284376801</v>
       </c>
       <c r="AX3">
-        <v>-17.503733166284153</v>
+        <v>-17.503748052862115</v>
       </c>
       <c r="AY3">
         <v>-9.7776956702981028</v>

--- a/data_output/prism_passive/all_passive_out_strain_GMtend_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMtend_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.313940977713873</v>
+        <v>4.7037690973825077</v>
       </c>
       <c r="C2">
-        <v>3.582624221287535</v>
+        <v>1.2637975731455251</v>
       </c>
       <c r="D2">
-        <v>14.750011552998298</v>
+        <v>0.87508580423249305</v>
       </c>
       <c r="E2">
-        <v>-1.7685376491936295</v>
+        <v>0.30266655436741863</v>
       </c>
       <c r="F2">
         <v>28.005184281845402</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.807652651233369</v>
+        <v>4.2882762550519846</v>
       </c>
       <c r="C3">
-        <v>0.34475373346397858</v>
+        <v>5.8867350382756936</v>
       </c>
       <c r="D3">
-        <v>-4.2763153771301532</v>
+        <v>5.8290072667893034</v>
       </c>
       <c r="E3">
-        <v>-3.3312670472368007</v>
+        <v>-1.725174307024737</v>
       </c>
       <c r="F3">
         <v>11.412969624876865</v>

--- a/data_output/prism_passive/all_passive_out_strain_GMtend_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMtend_ind_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.313940977713873</v>
+        <v>19.484201272969916</v>
       </c>
       <c r="C2">
-        <v>3.582624221287535</v>
+        <v>5.1676634364079881</v>
       </c>
       <c r="D2">
-        <v>14.750011552998298</v>
+        <v>6.1620420962219775</v>
       </c>
       <c r="E2">
-        <v>-1.7685376491936295</v>
+        <v>1.783092086562087</v>
       </c>
       <c r="F2">
         <v>28.005184281845402</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.807652651233369</v>
+        <v>33.143232035472344</v>
       </c>
       <c r="C3">
-        <v>0.34475373346397858</v>
+        <v>4.2882762550519846</v>
       </c>
       <c r="D3">
-        <v>-4.2763153771301532</v>
+        <v>-4.9049836629851153</v>
       </c>
       <c r="E3">
-        <v>-3.3312670472368007</v>
+        <v>5.8290072667893034</v>
       </c>
       <c r="F3">
         <v>11.412969624876865</v>

--- a/data_output/prism_passive/all_passive_out_strain_GMtend_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMtend_ind_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>13.981671415244401</v>
+      </c>
+      <c r="C2">
+        <v>3.5826242383074103</v>
+      </c>
+      <c r="D2">
+        <v>18.753916169418961</v>
+      </c>
+      <c r="E2">
+        <v>2.6036268309714377</v>
+      </c>
+      <c r="F2">
+        <v>28.005184298829032</v>
+      </c>
+      <c r="G2">
+        <v>7.3626407205838778</v>
+      </c>
+      <c r="H2">
+        <v>-0.36913026213948152</v>
+      </c>
+      <c r="I2">
+        <v>7.5839015883424743</v>
+      </c>
+      <c r="J2">
+        <v>8.1047841580991609</v>
+      </c>
+      <c r="K2">
+        <v>-3.0931518097039352</v>
+      </c>
+      <c r="L2">
+        <v>7.7378159767966723</v>
+      </c>
+      <c r="M2">
+        <v>2.758562487411413</v>
+      </c>
+      <c r="N2">
         <v>19.484201272969916</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>5.1676634364079881</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>6.1579397394234414</v>
+      </c>
+      <c r="Q2">
+        <v>-12.977107103075431</v>
+      </c>
+      <c r="R2">
+        <v>1.2637975731455251</v>
+      </c>
+      <c r="S2">
+        <v>9.2947226477153091</v>
+      </c>
+      <c r="T2">
+        <v>-3.9132676963907294</v>
+      </c>
+      <c r="U2">
+        <v>-2.2422441707165883</v>
+      </c>
+      <c r="V2">
+        <v>-0.22101471344619517</v>
+      </c>
+      <c r="W2">
+        <v>8.4789244024546555</v>
+      </c>
+      <c r="X2">
+        <v>-1.3569238651019084</v>
+      </c>
+      <c r="Y2">
+        <v>-3.7688459260821232</v>
+      </c>
+      <c r="Z2">
+        <v>0.24759791867923978</v>
+      </c>
+      <c r="AA2">
+        <v>5.4659972774778982</v>
+      </c>
+      <c r="AB2">
+        <v>25.08375808615888</v>
+      </c>
+      <c r="AC2">
+        <v>9.8593245699691394</v>
+      </c>
+      <c r="AD2">
+        <v>10.650273193376686</v>
+      </c>
+      <c r="AE2">
+        <v>-3.4383937259172868</v>
+      </c>
+      <c r="AF2">
+        <v>1.6649813723485734</v>
+      </c>
+      <c r="AG2">
+        <v>2.1549684691490585</v>
+      </c>
+      <c r="AH2">
+        <v>3.2390412026692674</v>
+      </c>
+      <c r="AI2">
+        <v>23.423038704493205</v>
+      </c>
+      <c r="AJ2">
+        <v>4.8647961188368463</v>
+      </c>
+      <c r="AK2">
+        <v>6.0335126123061755</v>
+      </c>
+      <c r="AL2">
+        <v>-4.787619638230959</v>
+      </c>
+      <c r="AM2">
         <v>6.1620420962219775</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>1.783092086562087</v>
       </c>
-      <c r="F2">
-        <v>28.005184281845402</v>
-      </c>
-      <c r="G2">
-        <v>7.3626406854017707</v>
-      </c>
-      <c r="H2">
-        <v>-0.92014843047247741</v>
-      </c>
-      <c r="I2">
-        <v>5.6039325976559056</v>
-      </c>
-      <c r="J2">
-        <v>7.7024574680078342</v>
-      </c>
-      <c r="K2">
-        <v>-5.2803467970229496</v>
-      </c>
-      <c r="L2">
-        <v>4.8718446397770263</v>
-      </c>
-      <c r="M2">
-        <v>2.7585624547983629</v>
-      </c>
-      <c r="N2">
-        <v>18.622937394400672</v>
-      </c>
-      <c r="O2">
-        <v>4.7037690700044532</v>
-      </c>
-      <c r="P2">
-        <v>6.157939716481617</v>
-      </c>
-      <c r="Q2">
-        <v>-12.977107127974261</v>
-      </c>
-      <c r="R2">
-        <v>1.2637975481522223</v>
-      </c>
-      <c r="S2">
-        <v>7.9262948354287781</v>
-      </c>
-      <c r="T2">
-        <v>-3.9132677226002639</v>
-      </c>
-      <c r="U2">
-        <v>-2.9620952706897978</v>
-      </c>
-      <c r="V2">
-        <v>-2.7614967790046268</v>
-      </c>
-      <c r="W2">
-        <v>6.4866572783489129</v>
-      </c>
-      <c r="X2">
-        <v>-3.2159271473994653</v>
-      </c>
-      <c r="Y2">
-        <v>-4.109352588142456</v>
-      </c>
-      <c r="Z2">
-        <v>0.24759790472079954</v>
-      </c>
-      <c r="AA2">
-        <v>4.9694296362279466</v>
-      </c>
-      <c r="AB2">
-        <v>25.083758058041411</v>
-      </c>
-      <c r="AC2">
-        <v>4.6560282394605546</v>
-      </c>
-      <c r="AD2">
-        <v>5.3660855645548029</v>
-      </c>
-      <c r="AE2">
-        <v>-3.4383937391383346</v>
-      </c>
-      <c r="AF2">
-        <v>1.6649813579968542</v>
-      </c>
-      <c r="AG2">
-        <v>1.6962525936124808</v>
-      </c>
-      <c r="AH2">
-        <v>1.7901389178800877</v>
-      </c>
-      <c r="AI2">
-        <v>22.963518941430515</v>
-      </c>
-      <c r="AJ2">
-        <v>2.8923294120951608</v>
-      </c>
-      <c r="AK2">
-        <v>3.3641959582709853</v>
-      </c>
-      <c r="AL2">
-        <v>-4.7876196560519881</v>
-      </c>
-      <c r="AM2">
-        <v>5.227009567672698</v>
-      </c>
-      <c r="AN2">
-        <v>0.87508578421498884</v>
-      </c>
       <c r="AO2">
-        <v>-1.9168156199005428</v>
+        <v>-1.9168155909563482</v>
       </c>
       <c r="AP2">
-        <v>1.38457785590571</v>
+        <v>1.3845778879706252</v>
       </c>
       <c r="AQ2">
-        <v>0.30266652554416906</v>
+        <v>0.30266655436741863</v>
       </c>
       <c r="AR2">
-        <v>2.6788679184800062</v>
+        <v>3.9105936724498682</v>
       </c>
       <c r="AS2">
-        <v>-2.6609454122105225</v>
+        <v>-2.6609453920902628</v>
       </c>
       <c r="AT2">
-        <v>-2.7118038985032755</v>
+        <v>-2.4838885114303522</v>
       </c>
       <c r="AU2">
-        <v>-1.2355488102610299</v>
+        <v>0.91088552037713977</v>
       </c>
       <c r="AV2">
-        <v>1.4934138560332131</v>
+        <v>3.6767583512020718</v>
       </c>
       <c r="AW2">
-        <v>-1.8696288270584929</v>
+        <v>-0.21445603850513886</v>
       </c>
       <c r="AX2">
-        <v>-2.7257113545903908</v>
+        <v>-2.4781604620899946</v>
       </c>
       <c r="AY2">
-        <v>-1.934404071438951</v>
+        <v>-1.9344040584188569</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>13.807652646956136</v>
+      </c>
+      <c r="C3">
+        <v>3.9623964839874688</v>
+      </c>
+      <c r="D3">
+        <v>-4.2763153404483019</v>
+      </c>
+      <c r="E3">
+        <v>-3.3312670445818511</v>
+      </c>
+      <c r="F3">
+        <v>13.282185762264135</v>
+      </c>
+      <c r="G3">
+        <v>2.7617725564120392</v>
+      </c>
+      <c r="H3">
+        <v>3.0177313032519857</v>
+      </c>
+      <c r="I3">
+        <v>1.9422449380618441</v>
+      </c>
+      <c r="J3">
+        <v>3.3344152106433933</v>
+      </c>
+      <c r="K3">
+        <v>12.326142396365606</v>
+      </c>
+      <c r="L3">
+        <v>0.866828304930786</v>
+      </c>
+      <c r="M3">
+        <v>3.9592997779080519</v>
+      </c>
+      <c r="N3">
         <v>33.143232035472344</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>4.2882762550519846</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>-14.398161100536644</v>
+      </c>
+      <c r="Q3">
+        <v>1.8541857093548921</v>
+      </c>
+      <c r="R3">
+        <v>6.6492294656032627</v>
+      </c>
+      <c r="S3">
+        <v>8.4985780167608027</v>
+      </c>
+      <c r="T3">
+        <v>6.8287403341812105</v>
+      </c>
+      <c r="U3">
+        <v>-1.6911936105145635</v>
+      </c>
+      <c r="V3">
+        <v>-3.9898661093899515</v>
+      </c>
+      <c r="W3">
+        <v>0.19127217967277199</v>
+      </c>
+      <c r="X3">
+        <v>9.9360100153657953</v>
+      </c>
+      <c r="Y3">
+        <v>5.5564788133836576</v>
+      </c>
+      <c r="Z3">
+        <v>-2.8816816132922489</v>
+      </c>
+      <c r="AA3">
+        <v>2.9375061790976971</v>
+      </c>
+      <c r="AB3">
+        <v>8.5447186155639265</v>
+      </c>
+      <c r="AC3">
+        <v>0.13814187021814328</v>
+      </c>
+      <c r="AD3">
+        <v>-0.82529274508204242</v>
+      </c>
+      <c r="AE3">
+        <v>-0.7780045906133044</v>
+      </c>
+      <c r="AF3">
+        <v>2.6404219645257077</v>
+      </c>
+      <c r="AG3">
+        <v>2.442888078954907</v>
+      </c>
+      <c r="AH3">
+        <v>-0.63697355676184975</v>
+      </c>
+      <c r="AI3">
+        <v>3.6175042793422616</v>
+      </c>
+      <c r="AJ3">
+        <v>-2.2897194713070057</v>
+      </c>
+      <c r="AK3">
+        <v>4.068903977335034</v>
+      </c>
+      <c r="AL3">
+        <v>-2.5401096310949631</v>
+      </c>
+      <c r="AM3">
         <v>-4.9049836629851153</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>5.8290072667893034</v>
       </c>
-      <c r="F3">
-        <v>11.412969624876865</v>
-      </c>
-      <c r="G3">
-        <v>1.2201857205462174</v>
-      </c>
-      <c r="H3">
-        <v>3.0177312603045974</v>
-      </c>
-      <c r="I3">
-        <v>1.9422449476437669</v>
-      </c>
-      <c r="J3">
-        <v>3.3344152033871519</v>
-      </c>
-      <c r="K3">
-        <v>12.326142373033244</v>
-      </c>
-      <c r="L3">
-        <v>0.86682828085427754</v>
-      </c>
-      <c r="M3">
-        <v>2.4087795670901513</v>
-      </c>
-      <c r="N3">
-        <v>33.143232013091982</v>
-      </c>
-      <c r="O3">
-        <v>4.2882762370947631</v>
-      </c>
-      <c r="P3">
-        <v>-14.86918883882228</v>
-      </c>
-      <c r="Q3">
-        <v>1.4420291901587605</v>
-      </c>
-      <c r="R3">
-        <v>5.8867350103898186</v>
-      </c>
-      <c r="S3">
-        <v>8.4985780057228446</v>
-      </c>
-      <c r="T3">
-        <v>6.4391490965293325</v>
-      </c>
-      <c r="U3">
-        <v>-1.6911936266782686</v>
-      </c>
-      <c r="V3">
-        <v>-3.9898661207122639</v>
-      </c>
-      <c r="W3">
-        <v>0.19127206419306461</v>
-      </c>
-      <c r="X3">
-        <v>9.936009997895761</v>
-      </c>
-      <c r="Y3">
-        <v>5.5564787843735957</v>
-      </c>
-      <c r="Z3">
-        <v>-2.9038017042924031</v>
-      </c>
-      <c r="AA3">
-        <v>2.9375061144980221</v>
-      </c>
-      <c r="AB3">
-        <v>5.6017562114402324</v>
-      </c>
-      <c r="AC3">
-        <v>0.13814183779716041</v>
-      </c>
-      <c r="AD3">
-        <v>-0.82529278392309902</v>
-      </c>
-      <c r="AE3">
-        <v>-2.498845656290519</v>
-      </c>
-      <c r="AF3">
-        <v>1.4670193989155194</v>
-      </c>
-      <c r="AG3">
-        <v>2.4428880500190471</v>
-      </c>
-      <c r="AH3">
-        <v>-0.63697357822203537</v>
-      </c>
-      <c r="AI3">
-        <v>3.6175042503902364</v>
-      </c>
-      <c r="AJ3">
-        <v>-2.2897194938783731</v>
-      </c>
-      <c r="AK3">
-        <v>4.0689039600475834</v>
-      </c>
-      <c r="AL3">
-        <v>-3.9431553455274022</v>
-      </c>
-      <c r="AM3">
-        <v>-4.9049836897718144</v>
-      </c>
-      <c r="AN3">
-        <v>5.8290072604878391</v>
-      </c>
       <c r="AO3">
-        <v>10.098187745315952</v>
+        <v>10.414605025603642</v>
       </c>
       <c r="AP3">
-        <v>-3.8916965641703674</v>
+        <v>-3.5007097884713811</v>
       </c>
       <c r="AQ3">
-        <v>-1.7251743299266022</v>
+        <v>-0.81485189840192296</v>
       </c>
       <c r="AR3">
-        <v>0.58562993830757015</v>
+        <v>0.58562994672312674</v>
       </c>
       <c r="AS3">
-        <v>4.1617043817693125</v>
+        <v>4.4528197139648293</v>
       </c>
       <c r="AT3">
-        <v>-0.42987160528701668</v>
+        <v>-0.42987158401325787</v>
       </c>
       <c r="AU3">
-        <v>-2.9144319765712794</v>
+        <v>-2.9144319648502273</v>
       </c>
       <c r="AV3">
-        <v>-1.9059018968942627</v>
+        <v>-1.9059018544050461</v>
       </c>
       <c r="AW3">
-        <v>-1.7440344503909693</v>
+        <v>-1.7440344284376801</v>
       </c>
       <c r="AX3">
-        <v>-17.503748078287963</v>
+        <v>-17.503748052862115</v>
       </c>
       <c r="AY3">
-        <v>-9.7776956869774185</v>
+        <v>-9.7187353602951809</v>
       </c>
     </row>
   </sheetData>
